--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_regional_energy_price_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_regional_energy_price_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{773A1357-9DEB-469B-8DDF-E1828981B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4548EF-78C3-4C1F-8DFE-E24E01DB945E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592AF61D-803B-48EB-AF59-DB73DE6F1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Date created</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>US Dollar/kWh &amp; MJ</t>
-  </si>
-  <si>
-    <t>kwh price gas</t>
   </si>
 </sst>
 </file>
@@ -993,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>44540</v>
+        <v>44714</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" t="s">
@@ -1470,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDE9FA-34B5-487F-BD06-B5E05371CD58}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:K7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1652,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I10"/>
+      <selection activeCell="A9" sqref="A9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,33 +1694,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="22">
-        <v>4.2649075184346026E-2</v>
-      </c>
-      <c r="C10" s="22">
-        <v>3.5272828863021459E-2</v>
-      </c>
-      <c r="D10" s="22">
-        <v>3.2132641329339857E-2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>3.6768166499934606E-2</v>
-      </c>
-      <c r="F10" s="22">
-        <v>3.8994241765676119E-2</v>
-      </c>
-      <c r="G10" s="22">
-        <v>4.2992773759784331E-2</v>
-      </c>
-      <c r="H10" s="22">
-        <v>3.1517337988478659E-2</v>
-      </c>
-      <c r="I10" s="22">
-        <v>3.7189580770083004E-2</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
